--- a/excel_with_subclasses/with_count/country_with_count.xlsx
+++ b/excel_with_subclasses/with_count/country_with_count.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="country" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="federated_state" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="state" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="island_nation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="microstate" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sovereign_state" sheetId="5" state="visible" r:id="rId5"/>
@@ -389,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,7 +432,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q96196009_государство</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q3024240_историческое государство</t>
+          <t>Q1250464_владение,Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -502,41 +502,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q11876947</t>
+          <t>Q217177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Династии Древнего Египта</t>
+          <t>Тайфа</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q3024240_историческое государство</t>
+          <t>Q1798550_petty kingdom</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q123480</t>
+          <t>Q11876947</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>не имеющие выхода к морю государства</t>
+          <t>Династии Древнего Египта</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q6256_страна,Q3024240_историческое государство</t>
+          <t>Q1250464_владение,Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -562,77 +562,77 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q28864179</t>
+          <t>Q188800</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>предложенное государство</t>
+          <t>личная уния</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q1250464_владение</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q188800</t>
+          <t>Q1625987</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>личная уния</t>
+          <t>План Одендаала</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q190354_бантустан</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q51576574</t>
+          <t>Q18669740</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>средиземноморская страна</t>
+          <t>бантустан ЮАР</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q190354_бантустан</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q18669740</t>
+          <t>Q190967</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>бантустан ЮАР</t>
+          <t>Государства крестоносцев</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q190354_бантустан</t>
+          <t>Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -642,12 +642,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q190967</t>
+          <t>Q43185013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Государства крестоносцев</t>
+          <t>морская республика</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -656,58 +656,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q1625987</t>
+          <t>Q463742</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>План Одендаала</t>
+          <t>Духовные княжества Священной Римской империи</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q190354_бантустан</t>
+          <t>Q24298790_княжество-епископство,Q26830017_государство в составе Священной Римской империи</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1323642</t>
+          <t>Q1074150</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>трансконтинентальная страна</t>
+          <t>shogunate</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q11545907_Q11545907</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q43185013</t>
+          <t>Q846025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>морская республика</t>
+          <t>Махаджанапады</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -716,118 +716,118 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q1501897</t>
+          <t>Q3181749</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Генеральные земли</t>
+          <t>Арабский халифат</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q131401_халифат</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q66724388</t>
+          <t>Q1763527</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>страна в составе Королевства Дании</t>
+          <t>страна в составе более крупного государственного образования</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q5164076_составная часть суверенного государства</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q1074150</t>
+          <t>Q1679711</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>shogunate</t>
+          <t>Modellstaat</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q11545907_Q11545907</t>
+          <t>Q1371288_вассальное государство,Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q1211369</t>
+          <t>Q39847223</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Империя, над которой никогда не заходит солнце</t>
+          <t>историческое протогосударство</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q1323642_трансконтинентальная страна,Q1790360_колониальная империя,Q19202067_глобальная империя</t>
+          <t>Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q1093720</t>
+          <t>Q741966</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>реальный союз</t>
+          <t>Швабский округ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q1798550_petty kingdom</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q846025</t>
+          <t>Q26272081</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Махаджанапады</t>
+          <t>Pre-modern Korea</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -836,38 +836,38 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q11396118</t>
+          <t>Q190354</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>разделённая страна</t>
+          <t>бантустан</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q208164_марионеточное государство,Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q1679711</t>
+          <t>Q506593</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modellstaat</t>
+          <t>Утремер</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -876,38 +876,38 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q59104206</t>
+          <t>Q12060881</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>полисинодальная монархия</t>
+          <t>Китайская империя</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q3325907_Polysynodal regime</t>
+          <t>Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q39847223</t>
+          <t>Q89101318</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>историческое протогосударство</t>
+          <t>Pre-modern Hungary</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -916,566 +916,26 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q1151616</t>
+          <t>Q899706</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>нации без государства</t>
+          <t>Конфедерация Перу и Боливии</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
+          <t>Q3024240_историческое государство</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Q1102202</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Династическая уния</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Q188800_личная уния</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Q5367717</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>shinkoku</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Q5170193</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>core countries</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Q831048</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Nassau-Hadamar</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Q506593</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Утремер</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Q7449317</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>semi-periphery countries</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Q89101318</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Pre-modern Hungary</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Q6726158</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Independent country</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Q66903706</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>banana producing countries</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Q25449457</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>континентальная страна</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Q3500085</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>periphery countries</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Q177323</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Развивающаяся страна</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Q12060881</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Китайская империя</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Q1434887</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Малые островные развивающиеся государства</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Q177323_Развивающаяся страна</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Q1538989</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>megadiverse country</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Q1541668</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>County of Diez</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Q160381</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Западный мир</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Q1641089</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Многонациональное государство</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Q190354</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>бантустан</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Q3373662</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>French-speaking Country</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Q204920</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Арагонская корона</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Q188800_личная уния</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Q2281140</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>safe country of origin</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Q2308303</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Полисинодия</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Q3325907_Polysynodal regime</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Q26272081</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Pre-modern Korea</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Q2639564</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>low-wage country</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Q3325907</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Polysynodal regime</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Q188800_личная уния</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Q899706</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Конфедерация Перу и Боливии</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Q6256_страна,Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,320 +983,2880 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q26830017</t>
+          <t>Q208500</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>государство в составе Священной Римской империи</t>
+          <t>княжество</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q7275_государство</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q465842</t>
+          <t>Q154547</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>штат Нигерии</t>
+          <t>герцогство</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q7275_государство</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q496539</t>
+          <t>Q1250464</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>провинция Южного Судана</t>
+          <t>владение</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q7275_государство</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q26879769</t>
+          <t>Q188443</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>государство в составе Рейнского союза</t>
+          <t>виртуальное государство</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q23037160_протогосударство</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q15149663</t>
+          <t>Q12759805</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>штат Мексики</t>
+          <t>султанат</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1250464_владение</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q23058</t>
+          <t>Q1371288</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>кантоны Швейцарии</t>
+          <t>вассальное государство</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1151405_клиентское государство</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q1221156</t>
+          <t>Q48349</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>земля в составе Германии</t>
+          <t>империя</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1250464_владение</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q746290</t>
+          <t>Q164142</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>провинция Судана</t>
+          <t>протекторат</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1151405_клиентское государство</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q15063586</t>
+          <t>Q24298790</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>штат Малайзии</t>
+          <t>княжество-епископство</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q3403564_церковное княжество</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q236036</t>
+          <t>Q217177</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>союзная республика в составе СССР</t>
+          <t>Тайфа</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1088391_государство-обрубок,Q1250464_владение,Q1798550_petty kingdom</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q261543</t>
+          <t>Q26879769</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>федеральная земля Австрии</t>
+          <t>государство в составе Рейнского союза</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q26879763_клиентское государство времён Наполеоновских воин</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q12959600</t>
+          <t>Q123480</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>республика в составе СФРЮ</t>
+          <t>не имеющие выхода к морю государства</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q7275_государство</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q463742</t>
+          <t>Q331644</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Духовные княжества Священной Римской империи</t>
+          <t>ханство</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q26830017_государство в составе Священной Римской империи</t>
+          <t>Q1250464_владение</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q65183056</t>
+          <t>Q691981</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>штат Федеральной Республики Центральной Америки</t>
+          <t>Силезские княжества</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q154547_герцогство,Q208500_княжество</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q129224</t>
+          <t>Q3241965</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>федераты</t>
+          <t>tributary state</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1151405_клиентское государство</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q20617590</t>
+          <t>Q472538</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>штат Бразилии</t>
+          <t>дочерние республики</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
+          <t>Q1151405_клиентское государство</t>
         </is>
       </c>
       <c r="D17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q26879763</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>клиентское государство времён Наполеоновских воин</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q208164</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>марионеточное государство</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q1151405</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>клиентское государство</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q22693483</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pflegamt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q57979411</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>дукат</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q188800</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>личная уния</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q7275_государство,Q1250464_владение</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q2494447</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>удельное княжество</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q236036</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>союзная республика в составе СССР</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования,Q23037160_протогосударство</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q426759</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>мандатная территория</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Q164142_протекторат</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q165116</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>великое княжество/великое герцогство</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q27925057</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>курфюшество</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q467745</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>союзные территории Индии</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Q131541_штаты и территории Индии</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q325261</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>государство-сателлит</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q1625987</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>План Одендаала</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Q190354_бантустан</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q18669740</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>бантустан ЮАР</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Q190354_бантустан</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q190967</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Государства крестоносцев</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q21479969</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>протекторат Великобритании</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Q164142_протекторат</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Q23037160</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>протогосударство</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Q12959600</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>республика в составе СФРЮ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Q179164</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>унитарное государство</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Q463742</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Духовные княжества Священной Римской империи</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Q3403564_церковное княжество,Q24298790_княжество-епископство</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Q859563</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>светское государство</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Q3336843</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>страна в составе Соединённого Королевства Великобритании и Северной Ирландии</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Q672729</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>исламская республика</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Q4204060_исламское государство</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Q842112</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>социалистическое государство</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Q15304003</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>государственное образование в составе Королевства Нидерландов</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Q2560551</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>вассальные и даннические государства Османской империи</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Q3403564</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>церковное княжество</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Q4209223</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>правовое государство</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Q131401</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>халифат</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Q1250464_владение,Q4204060_исламское государство</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Q56219758</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>республика в составе Чехословакии</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования,Q23037160_протогосударство</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Q836915</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>свободное государство</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Q1088391</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>государство-обрубок</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Q4808085</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>proposed state or territory of India</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q131541_штаты и территории Индии</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Q5164076</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>составная часть суверенного государства</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Q66724388</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>страна в составе Королевства Дании</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Q10007123</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Griqua state</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Q1138279</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ассоциированное государство</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Q849866</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>коммунистическое государство</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Q617347</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Племенные герцогства</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Q587252</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>буферное государство</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Q185963</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Нейтралитет</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Q1763527</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q7275_государство,Q5164076_составная часть суверенного государства</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Q3181749</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Арабский халифат</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q131401_халифат</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Q1679711</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Modellstaat</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q1371288_вассальное государство</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Q131541</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>штаты и территории Индии</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Q2706826</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sheikhdom</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Q59104206</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>полисинодальная монархия</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q3325907_Polysynodal regime</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Q13403037</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Русские княжества</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Q672502</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>эрнестинские герцогства</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство,Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Q4204060</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>исламское государство</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Q16034119</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Despotate</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Q160016</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>государство-член ООН</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Q619610</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>социальное государство</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Q1939894</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Верховские княжества</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Q1102202</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Династическая уния</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q188800_личная уния</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Q24305436</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abbey-principality</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q3403564_церковное княжество</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Q21286176</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Christian state</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Q6316828</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>member state of the Union of South American Nations</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Q63391844</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>потенциальное государство</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Q64779666</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sending state or organization</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Q64779710</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>receiving state or organization</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Q7396640</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sacerdotal state</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Q648046</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Юлих-Клеве-Берг</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Q6505795</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>государство-член Совета Европы</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Q11088505</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>core state</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Q66383092</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>constitutional oligarchy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Q828218</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>страны-изгои</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Q7985529</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>West Indies Associated States</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Q1138279_ассоциированное государство</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Q6726158</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Independent country</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Q11248548</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>fraternal country</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Q6814224</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>страна-участник Меркосура</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Q6814244</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>member state of the World Intellectual Property Organization</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Q6814242</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>member state of the World Customs Organization</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Q71747</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Бретань</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Q6814245</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>member state of the World Sports Alliance</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Q11143388</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>visa-free country</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Q6814241</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>member state of the Venice Commission</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Q6814239</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>member states of the Organisation of Islamic Cooperation</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Q6814237</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>member state of the Organization of Ibero-American States</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Q6814234</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>member state of the International Organization of the Francophonie</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Q628363</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>member states of UNESCO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Q6814226</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>member states of the Arab League</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Q6814233</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>member state of the International Atomic Energy Agency</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Q6814232</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>member state of the Latin Union</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Q6814231</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>member state of the Caribbean Community</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Q6814230</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>member state of the Cooperation Council for the Arab States of the Gulf</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Q6814229</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>member state of the Community of Portuguese Language Countries</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Q6814228</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>member state of the Bolivarian Alliance for the Americas</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Q6814225</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>member state of OPEC</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Q204920</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Арагонская корона</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Q188800_личная уния</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Q627527</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Дунайские княжества</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Q15622876</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>multinational state</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Q315010</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Тюрингские государства</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Q3055369</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>страна-участник Африканского союза</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Q2915311</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>еврейское государство</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Q1646605</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>страна-участник</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Q16969638</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Neutral powers during World War II</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Q185963_Нейтралитет</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Q17093009</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>member states of the Shanghai Cooperation Organisation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Q2658979</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Албанские княжества</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Q171751</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Банановая республика</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Q1757823</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Государства-члены Содружества наций</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Q185145</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>великая держава</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Q2308303</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Полисинодия</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Q3325907_Polysynodal regime</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Q185441</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>государство-член Европейского союза</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Q22909549</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>унитарная парламентская республика</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Q179164_унитарное государство</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Q190354</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>бантустан</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Q208164_марионеточное государство</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Q21123038</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>граф Бигорра</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Q3303230</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>pariah state</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Q3325907</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Polysynodal regime</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Q188800_личная уния</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Q595841</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>список стран — членов НАТО</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Q1511637</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>nanny state</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Q1197155</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Гипердержава</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Q1225109</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>area-state</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Q1400303_territorial state</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Q20982723</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>member state of the Eurasian Economic Union</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Q4944647</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Border states</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Q587252_буферное государство</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Q4889537</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>modern state</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Q13417653</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>confessional state</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Q1360686</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>португалоязычные страны Африки</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Q1400303</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>territorial state</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Q1444611</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Night-watchman state</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Q149846</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Графство Кефалинии и Закинфа</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Q1502123</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Рантье</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Q392160</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Несостоятельное государство</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Q376860</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Новые индустриальные страны</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Q1503467</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Unrechtsstaat</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Q3373417</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>страна происхождения товара</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Q2745501</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Государства-члены Лиги Наций</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>0</v>
       </c>
     </row>
